--- a/mysite/zhoubao.xlsx
+++ b/mysite/zhoubao.xlsx
@@ -367,16 +367,126 @@
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
     <numFmt formatCode="#,##0_);[Red]\(#,##0\)" numFmtId="165"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="45">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <sz val="12"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="20"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="17"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="60"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="63"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="62"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="52"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="52"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i val="1"/>
+      <color indexed="23"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="10"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="13"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -447,6 +557,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <b val="1"/>
+      <sz val="7"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="仿宋"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="16"/>
     </font>
     <font>
@@ -472,6 +595,12 @@
       <charset val="134"/>
       <family val="2"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -519,7 +648,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -529,6 +658,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -563,6 +734,113 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1183,505 +1461,542 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="5" fillId="6" fontId="12" numFmtId="0"/>
+    <xf borderId="6" fillId="7" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="164"/>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
+    <xf borderId="8" fillId="6" fontId="8" numFmtId="0"/>
+    <xf borderId="5" fillId="5" fontId="9" numFmtId="0"/>
+    <xf borderId="9" fillId="9" fontId="25" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="14">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="19" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="14">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="21" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="21" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="35" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="36" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="20" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="11" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="12" fontId="40" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="12" fontId="40" numFmtId="31" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="11" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="21" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="21" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="39" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="18" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="18" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="28" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="28" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="28" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="28" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="37" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="37" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="15" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="34" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="42" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="24" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="24" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="44" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="44" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="41" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="34" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="34" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="34" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="58" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="54" fillId="2" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="55" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="56" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="49" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="51" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="52" fillId="2" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="43" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="10" fontId="44" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="2" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="37" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="19" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="15" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="15" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="15" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="46" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="38" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="40" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="41" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="43" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="23" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="3" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="44" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="19">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="1"/>
+    <cellStyle builtinId="15" name="标题" xfId="1"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="2"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="3"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="4"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="5"/>
+    <cellStyle builtinId="27" name="差" xfId="6"/>
+    <cellStyle builtinId="26" name="好" xfId="7"/>
+    <cellStyle builtinId="25" name="汇总" xfId="8"/>
+    <cellStyle builtinId="22" name="计算" xfId="9"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="10"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="11"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="12"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="13"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="14"/>
+    <cellStyle builtinId="28" name="适中" xfId="15"/>
+    <cellStyle builtinId="21" name="输出" xfId="16"/>
+    <cellStyle builtinId="20" name="输入" xfId="17"/>
+    <cellStyle builtinId="10" name="注释" xfId="18"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1995,470 +2310,470 @@
   <sheetData>
     <row customHeight="1" ht="27" r="1" spans="1:13"/>
     <row customHeight="1" ht="27" r="2" spans="1:13">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71" t="n"/>
+      <c r="B2" s="72" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="3" spans="1:13">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="n"/>
+      <c r="B3" s="72" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="4" spans="1:13">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="5" spans="1:13">
-      <c r="A5" s="15" t="n"/>
-      <c r="B5" s="18" t="n"/>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="19" t="n"/>
-      <c r="F5" s="19" t="n"/>
+      <c r="A5" s="19" t="n"/>
+      <c r="B5" s="22" t="n"/>
+      <c r="C5" s="22" t="n"/>
+      <c r="D5" s="23" t="n"/>
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="23" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="6" spans="1:13">
-      <c r="A6" s="15" t="n"/>
-      <c r="B6" s="50" t="n"/>
-      <c r="C6" s="47" t="n"/>
-      <c r="D6" s="19" t="n"/>
-      <c r="E6" s="51" t="n"/>
-      <c r="F6" s="51" t="n"/>
+      <c r="A6" s="19" t="n"/>
+      <c r="B6" s="63" t="n"/>
+      <c r="C6" s="60" t="n"/>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="64" t="n"/>
+      <c r="F6" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="7" spans="1:13">
-      <c r="B7" s="13" t="n"/>
-      <c r="M7" s="14" t="n"/>
+      <c r="B7" s="17" t="n"/>
+      <c r="M7" s="18" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="8" spans="1:13">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="71" t="n"/>
+      <c r="B8" s="72" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="9" spans="1:13">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="10" spans="1:13">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="51" t="n"/>
-      <c r="F10" s="51" t="n"/>
+      <c r="E10" s="64" t="n"/>
+      <c r="F10" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="11" spans="1:13">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="79" t="n"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="80" t="n"/>
+      <c r="C11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="76" t="n"/>
-      <c r="E11" s="51" t="n"/>
-      <c r="F11" s="51" t="n"/>
+      <c r="D11" s="77" t="n"/>
+      <c r="E11" s="64" t="n"/>
+      <c r="F11" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="12" spans="1:13">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="79" t="n"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="80" t="n"/>
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="77" t="n"/>
-      <c r="E12" s="51" t="n"/>
-      <c r="F12" s="51" t="n"/>
+      <c r="D12" s="78" t="n"/>
+      <c r="E12" s="64" t="n"/>
+      <c r="F12" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="13" spans="1:13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="79" t="n"/>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="80" t="n"/>
+      <c r="C13" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="51" t="n"/>
-      <c r="F13" s="51" t="n"/>
+      <c r="E13" s="64" t="n"/>
+      <c r="F13" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="14" spans="1:13">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="79" t="n"/>
-      <c r="C14" s="53" t="s">
+      <c r="B14" s="80" t="n"/>
+      <c r="C14" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="51" t="n"/>
-      <c r="F14" s="51" t="n"/>
+      <c r="E14" s="64" t="n"/>
+      <c r="F14" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="15" spans="1:13">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="79" t="n"/>
-      <c r="C15" s="53" t="s">
+      <c r="B15" s="80" t="n"/>
+      <c r="C15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="76" t="n"/>
-      <c r="E15" s="51" t="n"/>
-      <c r="F15" s="51" t="n"/>
+      <c r="D15" s="77" t="n"/>
+      <c r="E15" s="64" t="n"/>
+      <c r="F15" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="16" spans="1:13">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="79" t="n"/>
-      <c r="C16" s="53" t="s">
+      <c r="B16" s="80" t="n"/>
+      <c r="C16" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="77" t="n"/>
-      <c r="E16" s="51" t="n"/>
-      <c r="F16" s="51" t="n"/>
+      <c r="D16" s="78" t="n"/>
+      <c r="E16" s="64" t="n"/>
+      <c r="F16" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="17" spans="1:13">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="79" t="n"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="80" t="n"/>
+      <c r="C17" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="51" t="n"/>
-      <c r="F17" s="51" t="n"/>
+      <c r="E17" s="64" t="n"/>
+      <c r="F17" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="18" spans="1:13">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="79" t="n"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="80" t="n"/>
+      <c r="C18" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="51" t="n"/>
-      <c r="F18" s="51" t="n"/>
+      <c r="E18" s="64" t="n"/>
+      <c r="F18" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="19" spans="1:13">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="79" t="n"/>
-      <c r="C19" s="53" t="s">
+      <c r="B19" s="80" t="n"/>
+      <c r="C19" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="76" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
+      <c r="D19" s="77" t="n"/>
+      <c r="E19" s="64" t="n"/>
+      <c r="F19" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="20" spans="1:13">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="79" t="n"/>
-      <c r="C20" s="53" t="s">
+      <c r="B20" s="80" t="n"/>
+      <c r="C20" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="77" t="n"/>
-      <c r="E20" s="51" t="n"/>
-      <c r="F20" s="51" t="n"/>
+      <c r="D20" s="78" t="n"/>
+      <c r="E20" s="64" t="n"/>
+      <c r="F20" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="21" spans="1:13">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="79" t="n"/>
-      <c r="C21" s="53" t="s">
+      <c r="B21" s="80" t="n"/>
+      <c r="C21" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="51" t="n"/>
-      <c r="F21" s="51" t="n"/>
+      <c r="E21" s="64" t="n"/>
+      <c r="F21" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="22" spans="1:13">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="79" t="n"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="80" t="n"/>
+      <c r="C22" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="51" t="n"/>
-      <c r="F22" s="51" t="n"/>
+      <c r="E22" s="64" t="n"/>
+      <c r="F22" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="23" spans="1:13">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="79" t="n"/>
-      <c r="C23" s="53" t="s">
+      <c r="B23" s="80" t="n"/>
+      <c r="C23" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="76" t="n"/>
-      <c r="E23" s="51" t="n"/>
-      <c r="F23" s="51" t="n"/>
+      <c r="D23" s="77" t="n"/>
+      <c r="E23" s="64" t="n"/>
+      <c r="F23" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="24" spans="1:13">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="79" t="n"/>
-      <c r="C24" s="53" t="s">
+      <c r="B24" s="80" t="n"/>
+      <c r="C24" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="76" t="n"/>
-      <c r="E24" s="51" t="n"/>
-      <c r="F24" s="51" t="n"/>
+      <c r="D24" s="77" t="n"/>
+      <c r="E24" s="64" t="n"/>
+      <c r="F24" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="25" spans="1:13">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="79" t="n"/>
-      <c r="C25" s="53" t="s">
+      <c r="B25" s="80" t="n"/>
+      <c r="C25" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="76" t="n"/>
-      <c r="E25" s="51" t="n"/>
-      <c r="F25" s="51" t="n"/>
+      <c r="D25" s="77" t="n"/>
+      <c r="E25" s="64" t="n"/>
+      <c r="F25" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="26" spans="1:13">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="79" t="n"/>
-      <c r="C26" s="53" t="s">
+      <c r="B26" s="80" t="n"/>
+      <c r="C26" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="76" t="n"/>
-      <c r="E26" s="51" t="n"/>
-      <c r="F26" s="51" t="n"/>
+      <c r="D26" s="77" t="n"/>
+      <c r="E26" s="64" t="n"/>
+      <c r="F26" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="27" spans="1:13">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="79" t="n"/>
-      <c r="C27" s="53" t="s">
+      <c r="B27" s="80" t="n"/>
+      <c r="C27" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="76" t="n"/>
-      <c r="E27" s="51" t="n"/>
-      <c r="F27" s="51" t="n"/>
+      <c r="D27" s="77" t="n"/>
+      <c r="E27" s="64" t="n"/>
+      <c r="F27" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="28" spans="1:13">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="79" t="n"/>
-      <c r="C28" s="53" t="s">
+      <c r="B28" s="80" t="n"/>
+      <c r="C28" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="76" t="n"/>
-      <c r="E28" s="51" t="n"/>
-      <c r="F28" s="51" t="n"/>
+      <c r="D28" s="77" t="n"/>
+      <c r="E28" s="64" t="n"/>
+      <c r="F28" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="29" spans="1:13">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="80" t="n"/>
-      <c r="C29" s="53" t="s">
+      <c r="B29" s="81" t="n"/>
+      <c r="C29" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="77" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
+      <c r="D29" s="78" t="n"/>
+      <c r="E29" s="64" t="n"/>
+      <c r="F29" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="30" spans="1:13">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
+      <c r="E30" s="64" t="n"/>
+      <c r="F30" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="31" spans="1:13">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="73" t="n"/>
-      <c r="C31" s="53" t="s">
+      <c r="B31" s="74" t="n"/>
+      <c r="C31" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="76" t="n"/>
-      <c r="E31" s="51" t="n"/>
-      <c r="F31" s="51" t="n"/>
+      <c r="D31" s="77" t="n"/>
+      <c r="E31" s="64" t="n"/>
+      <c r="F31" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="32" spans="1:13">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="73" t="n"/>
-      <c r="C32" s="53" t="s">
+      <c r="B32" s="74" t="n"/>
+      <c r="C32" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="76" t="n"/>
-      <c r="E32" s="51" t="n"/>
-      <c r="F32" s="51" t="n"/>
+      <c r="D32" s="77" t="n"/>
+      <c r="E32" s="64" t="n"/>
+      <c r="F32" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="33" spans="1:13">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="73" t="n"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="74" t="n"/>
+      <c r="C33" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="76" t="n"/>
-      <c r="E33" s="51" t="n"/>
-      <c r="F33" s="51" t="n"/>
+      <c r="D33" s="77" t="n"/>
+      <c r="E33" s="64" t="n"/>
+      <c r="F33" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="34" spans="1:13">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="73" t="n"/>
-      <c r="C34" s="53" t="s">
+      <c r="B34" s="74" t="n"/>
+      <c r="C34" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="76" t="n"/>
-      <c r="E34" s="51" t="n"/>
-      <c r="F34" s="51" t="n"/>
+      <c r="D34" s="77" t="n"/>
+      <c r="E34" s="64" t="n"/>
+      <c r="F34" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="35" spans="1:13">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="73" t="n"/>
-      <c r="C35" s="53" t="s">
+      <c r="B35" s="74" t="n"/>
+      <c r="C35" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="76" t="n"/>
-      <c r="E35" s="51" t="n"/>
-      <c r="F35" s="51" t="n"/>
+      <c r="D35" s="77" t="n"/>
+      <c r="E35" s="64" t="n"/>
+      <c r="F35" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="36" spans="1:13">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="73" t="n"/>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="74" t="n"/>
+      <c r="C36" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="76" t="n"/>
-      <c r="E36" s="51" t="n"/>
-      <c r="F36" s="51" t="n"/>
+      <c r="D36" s="77" t="n"/>
+      <c r="E36" s="64" t="n"/>
+      <c r="F36" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="37" spans="1:13">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="73" t="n"/>
-      <c r="C37" s="53" t="s">
+      <c r="B37" s="74" t="n"/>
+      <c r="C37" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="76" t="n"/>
-      <c r="E37" s="51" t="n"/>
-      <c r="F37" s="51" t="n"/>
+      <c r="D37" s="77" t="n"/>
+      <c r="E37" s="64" t="n"/>
+      <c r="F37" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="38" spans="1:13">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="73" t="n"/>
-      <c r="C38" s="53" t="s">
+      <c r="B38" s="74" t="n"/>
+      <c r="C38" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="76" t="n"/>
-      <c r="E38" s="51" t="n"/>
-      <c r="F38" s="51" t="n"/>
+      <c r="D38" s="77" t="n"/>
+      <c r="E38" s="64" t="n"/>
+      <c r="F38" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="39" spans="1:13">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="74" t="n"/>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="75" t="n"/>
+      <c r="C39" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="77" t="n"/>
-      <c r="E39" s="51" t="n"/>
-      <c r="F39" s="51" t="n"/>
+      <c r="D39" s="78" t="n"/>
+      <c r="E39" s="64" t="n"/>
+      <c r="F39" s="64" t="n"/>
     </row>
     <row customHeight="1" ht="27" r="40" spans="1:13">
-      <c r="A40" s="15" t="n"/>
-      <c r="B40" s="50" t="n"/>
-      <c r="C40" s="47" t="n"/>
-      <c r="D40" s="50" t="n"/>
-      <c r="E40" s="51" t="n"/>
-      <c r="F40" s="51" t="n"/>
+      <c r="A40" s="19" t="n"/>
+      <c r="B40" s="63" t="n"/>
+      <c r="C40" s="60" t="n"/>
+      <c r="D40" s="63" t="n"/>
+      <c r="E40" s="64" t="n"/>
+      <c r="F40" s="64" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2503,92 +2818,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="30" t="n"/>
-      <c r="I1" s="24" t="n"/>
+      <c r="H1" s="34" t="n"/>
+      <c r="I1" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="2" spans="1:9">
-      <c r="A2" s="21" t="n"/>
-      <c r="B2" s="31" t="n"/>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="29" t="n"/>
-      <c r="F2" s="29" t="n"/>
-      <c r="G2" s="16" t="n"/>
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="35" t="n"/>
+      <c r="C2" s="26" t="n"/>
+      <c r="D2" s="26" t="n"/>
+      <c r="E2" s="33" t="n"/>
+      <c r="F2" s="33" t="n"/>
+      <c r="G2" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="3" spans="1:9">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="22" t="n"/>
-      <c r="D3" s="22" t="n"/>
-      <c r="E3" s="29" t="n"/>
-      <c r="F3" s="29" t="n"/>
-      <c r="G3" s="16" t="n"/>
+      <c r="A3" s="25" t="n"/>
+      <c r="B3" s="35" t="n"/>
+      <c r="C3" s="26" t="n"/>
+      <c r="D3" s="26" t="n"/>
+      <c r="E3" s="33" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="4" spans="1:9">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="22" t="n"/>
-      <c r="D4" s="22" t="n"/>
-      <c r="E4" s="29" t="n"/>
-      <c r="F4" s="29" t="n"/>
-      <c r="G4" s="16" t="n"/>
+      <c r="A4" s="25" t="n"/>
+      <c r="B4" s="35" t="n"/>
+      <c r="C4" s="26" t="n"/>
+      <c r="D4" s="26" t="n"/>
+      <c r="E4" s="33" t="n"/>
+      <c r="F4" s="33" t="n"/>
+      <c r="G4" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="5" spans="1:9">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="22" t="n"/>
-      <c r="D5" s="22" t="n"/>
-      <c r="E5" s="29" t="n"/>
-      <c r="F5" s="29" t="n"/>
-      <c r="G5" s="16" t="n"/>
+      <c r="A5" s="25" t="n"/>
+      <c r="B5" s="35" t="n"/>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="26" t="n"/>
+      <c r="E5" s="33" t="n"/>
+      <c r="F5" s="33" t="n"/>
+      <c r="G5" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="6" spans="1:9">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="22" t="n"/>
-      <c r="D6" s="22" t="n"/>
-      <c r="E6" s="29" t="n"/>
-      <c r="F6" s="29" t="n"/>
-      <c r="G6" s="16" t="n"/>
+      <c r="A6" s="25" t="n"/>
+      <c r="B6" s="35" t="n"/>
+      <c r="C6" s="26" t="n"/>
+      <c r="D6" s="26" t="n"/>
+      <c r="E6" s="33" t="n"/>
+      <c r="F6" s="33" t="n"/>
+      <c r="G6" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="7" spans="1:9">
-      <c r="A7" s="21" t="n"/>
-      <c r="B7" s="31" t="n"/>
-      <c r="C7" s="22" t="n"/>
-      <c r="D7" s="22" t="n"/>
-      <c r="E7" s="29" t="n"/>
-      <c r="F7" s="29" t="n"/>
-      <c r="G7" s="16" t="n"/>
+      <c r="A7" s="25" t="n"/>
+      <c r="B7" s="35" t="n"/>
+      <c r="C7" s="26" t="n"/>
+      <c r="D7" s="26" t="n"/>
+      <c r="E7" s="33" t="n"/>
+      <c r="F7" s="33" t="n"/>
+      <c r="G7" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="8" spans="1:9">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="29" t="n"/>
-      <c r="C8" s="29" t="n"/>
-      <c r="D8" s="29" t="n"/>
-      <c r="E8" s="29" t="n"/>
-      <c r="F8" s="29" t="n"/>
-      <c r="G8" s="29" t="n"/>
+      <c r="A8" s="25" t="n"/>
+      <c r="B8" s="33" t="n"/>
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="33" t="n"/>
+      <c r="F8" s="33" t="n"/>
+      <c r="G8" s="33" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2605,7 +2920,7 @@
   <dimension ref="A2:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -2626,606 +2941,602 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
-      <c r="E2" s="164" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="9" t="n"/>
+      <c r="E2" s="165" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="165" t="n"/>
-      <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="166" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="13" t="n"/>
+      <c r="J3" s="13" t="n"/>
+      <c r="K3" s="13" t="n"/>
     </row>
     <row customHeight="1" ht="36.6" r="4" spans="1:14" thickBot="1">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="115" t="n"/>
-      <c r="C4" s="115" t="n"/>
-      <c r="D4" s="115" t="n"/>
-      <c r="E4" s="116" t="n"/>
-      <c r="F4" s="116" t="n"/>
-      <c r="G4" s="116" t="n"/>
-      <c r="H4" s="116" t="n"/>
-      <c r="I4" s="117" t="n"/>
-      <c r="J4" s="117" t="n"/>
-      <c r="K4" s="117" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="5" s="27" spans="1:14">
-      <c r="A5" s="95" t="s">
+      <c r="B4" s="112" t="n"/>
+      <c r="C4" s="112" t="n"/>
+      <c r="D4" s="112" t="n"/>
+      <c r="E4" s="113" t="n"/>
+      <c r="F4" s="113" t="n"/>
+      <c r="G4" s="113" t="n"/>
+      <c r="H4" s="113" t="n"/>
+      <c r="I4" s="114" t="n"/>
+      <c r="J4" s="114" t="n"/>
+      <c r="K4" s="114" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.6" r="5" s="31" spans="1:14">
+      <c r="A5" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="96" t="n"/>
-      <c r="C5" s="118" t="n"/>
-      <c r="D5" s="119" t="n"/>
-      <c r="E5" s="96" t="n"/>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="94" t="n"/>
+      <c r="C5" s="115" t="n"/>
+      <c r="D5" s="116" t="n"/>
+      <c r="E5" s="94" t="n"/>
+      <c r="F5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="118" t="n"/>
-      <c r="H5" s="96" t="n"/>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="115" t="n"/>
+      <c r="H5" s="94" t="n"/>
+      <c r="I5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="120" t="n"/>
-      <c r="M5" s="3" t="s">
+      <c r="K5" s="117" t="n"/>
+      <c r="M5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="6" s="27" spans="1:14">
-      <c r="A6" s="97" t="s">
+    <row customFormat="1" customHeight="1" ht="15.6" r="6" s="31" spans="1:14">
+      <c r="A6" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="98" t="n"/>
-      <c r="C6" s="123" t="n"/>
-      <c r="D6" s="124" t="n"/>
-      <c r="E6" s="124" t="n"/>
-      <c r="F6" s="124" t="n"/>
-      <c r="G6" s="124" t="n"/>
-      <c r="H6" s="124" t="n"/>
-      <c r="I6" s="124" t="n"/>
-      <c r="J6" s="124" t="n"/>
-      <c r="K6" s="125" t="n"/>
-      <c r="M6" s="11" t="n"/>
-      <c r="N6" s="12" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="7" s="27" spans="1:14" thickBot="1">
-      <c r="A7" s="99" t="s">
+      <c r="B6" s="96" t="n"/>
+      <c r="C6" s="120" t="n"/>
+      <c r="D6" s="121" t="n"/>
+      <c r="E6" s="121" t="n"/>
+      <c r="F6" s="121" t="n"/>
+      <c r="G6" s="121" t="n"/>
+      <c r="H6" s="121" t="n"/>
+      <c r="I6" s="121" t="n"/>
+      <c r="J6" s="121" t="n"/>
+      <c r="K6" s="122" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="15" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.6" r="7" s="31" spans="1:14" thickBot="1">
+      <c r="A7" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="100" t="n"/>
-      <c r="C7" s="121" t="n"/>
-      <c r="D7" s="122" t="n"/>
-      <c r="E7" s="100" t="n"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="98" t="n"/>
+      <c r="C7" s="118" t="n"/>
+      <c r="D7" s="119" t="n"/>
+      <c r="E7" s="98" t="n"/>
+      <c r="F7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="131" t="s">
+      <c r="G7" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="132" t="n"/>
-      <c r="I7" s="132" t="n"/>
-      <c r="J7" s="132" t="n"/>
-      <c r="K7" s="133" t="n"/>
-      <c r="M7" s="6" t="n">
+      <c r="H7" s="129" t="n"/>
+      <c r="I7" s="129" t="n"/>
+      <c r="J7" s="129" t="n"/>
+      <c r="K7" s="130" t="n"/>
+      <c r="M7" s="9" t="n">
         <v>37256</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="10">
         <f>M7+E7*7</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="8" s="27" spans="1:14" thickBot="1">
-      <c r="A8" s="101" t="s">
+    <row customFormat="1" customHeight="1" ht="15.6" r="8" s="31" spans="1:14" thickBot="1">
+      <c r="A8" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="102" t="n"/>
-      <c r="C8" s="102" t="n"/>
-      <c r="D8" s="102" t="n"/>
-      <c r="E8" s="102" t="n"/>
-      <c r="F8" s="102" t="n"/>
-      <c r="G8" s="102" t="n"/>
-      <c r="H8" s="102" t="n"/>
-      <c r="I8" s="102" t="n"/>
-      <c r="J8" s="102" t="n"/>
-      <c r="K8" s="103" t="n"/>
-      <c r="M8" s="6" t="n"/>
-      <c r="N8" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="9" s="27" spans="1:14">
-      <c r="B9" s="104" t="s">
+      <c r="B8" s="100" t="n"/>
+      <c r="C8" s="100" t="n"/>
+      <c r="D8" s="100" t="n"/>
+      <c r="E8" s="100" t="n"/>
+      <c r="F8" s="100" t="n"/>
+      <c r="G8" s="100" t="n"/>
+      <c r="H8" s="100" t="n"/>
+      <c r="I8" s="100" t="n"/>
+      <c r="J8" s="100" t="n"/>
+      <c r="K8" s="101" t="n"/>
+      <c r="M8" s="9" t="n"/>
+      <c r="N8" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="9" s="31" spans="1:14">
+      <c r="B9" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="105" t="n"/>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="103" t="n"/>
+      <c r="D9" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="84" t="n"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="85" t="n"/>
+      <c r="I9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="83" t="s">
+      <c r="J9" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="106" t="n"/>
-      <c r="M9" s="6" t="n"/>
-      <c r="N9" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24" r="10" s="27" spans="1:14">
-      <c r="A10" s="109" t="s">
+      <c r="K9" s="104" t="n"/>
+      <c r="M9" s="9" t="n"/>
+      <c r="N9" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="24" r="10" s="31" spans="1:14">
+      <c r="A10" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="85" t="n"/>
-      <c r="C10" s="86" t="n"/>
-      <c r="D10" s="86" t="n"/>
-      <c r="E10" s="54" t="n"/>
-      <c r="F10" s="38" t="n"/>
-      <c r="G10" s="107" t="n"/>
-      <c r="H10" s="112" t="n"/>
-      <c r="I10" s="41" t="n"/>
-      <c r="J10" s="107" t="n"/>
-      <c r="K10" s="108" t="n"/>
-      <c r="M10" s="6" t="n"/>
-      <c r="N10" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="11" s="27" spans="1:14">
-      <c r="A11" s="109" t="n"/>
-      <c r="B11" s="85" t="n"/>
-      <c r="C11" s="86" t="n"/>
-      <c r="D11" s="86" t="n"/>
-      <c r="E11" s="54" t="n"/>
-      <c r="F11" s="38" t="n"/>
-      <c r="G11" s="107" t="n"/>
-      <c r="H11" s="112" t="n"/>
-      <c r="I11" s="41" t="n"/>
-      <c r="J11" s="107" t="n"/>
-      <c r="K11" s="108" t="n"/>
-      <c r="M11" s="6" t="n"/>
-      <c r="N11" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="12" s="27" spans="1:14">
-      <c r="A12" s="109" t="n"/>
-      <c r="B12" s="85" t="n"/>
-      <c r="C12" s="86" t="n"/>
-      <c r="D12" s="86" t="n"/>
-      <c r="E12" s="143" t="n"/>
-      <c r="F12" s="38" t="n"/>
-      <c r="G12" s="142" t="n"/>
-      <c r="H12" s="143" t="n"/>
-      <c r="I12" s="42" t="n"/>
-      <c r="J12" s="107" t="n"/>
-      <c r="K12" s="108" t="n"/>
-      <c r="M12" s="6" t="n"/>
-      <c r="N12" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="13" s="27" spans="1:14">
-      <c r="A13" s="109" t="s">
+      <c r="B10" s="86" t="n"/>
+      <c r="C10" s="87" t="n"/>
+      <c r="D10" s="87" t="n"/>
+      <c r="E10" s="67" t="n"/>
+      <c r="F10" s="44" t="n"/>
+      <c r="G10" s="105" t="n"/>
+      <c r="H10" s="139" t="n"/>
+      <c r="I10" s="47" t="n"/>
+      <c r="J10" s="105" t="n"/>
+      <c r="K10" s="106" t="n"/>
+      <c r="M10" s="9" t="n"/>
+      <c r="N10" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="24.75" r="11" s="31" spans="1:14">
+      <c r="A11" s="107" t="n"/>
+      <c r="B11" s="86" t="n"/>
+      <c r="C11" s="87" t="n"/>
+      <c r="D11" s="87" t="n"/>
+      <c r="E11" s="67" t="n"/>
+      <c r="F11" s="44" t="n"/>
+      <c r="G11" s="105" t="n"/>
+      <c r="H11" s="139" t="n"/>
+      <c r="I11" s="47" t="n"/>
+      <c r="J11" s="105" t="n"/>
+      <c r="K11" s="106" t="n"/>
+      <c r="M11" s="9" t="n"/>
+      <c r="N11" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="12" s="31" spans="1:14">
+      <c r="A12" s="107" t="n"/>
+      <c r="B12" s="86" t="n"/>
+      <c r="C12" s="87" t="n"/>
+      <c r="D12" s="87" t="n"/>
+      <c r="E12" s="141" t="n"/>
+      <c r="F12" s="44" t="n"/>
+      <c r="G12" s="140" t="n"/>
+      <c r="H12" s="141" t="n"/>
+      <c r="I12" s="48" t="n"/>
+      <c r="J12" s="105" t="n"/>
+      <c r="K12" s="106" t="n"/>
+      <c r="M12" s="9" t="n"/>
+      <c r="N12" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="13" s="31" spans="1:14">
+      <c r="A13" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="85" t="n"/>
-      <c r="C13" s="86" t="n"/>
-      <c r="D13" s="86" t="n"/>
-      <c r="E13" s="54" t="n"/>
-      <c r="F13" s="38" t="n"/>
-      <c r="G13" s="142" t="n"/>
-      <c r="H13" s="143" t="n"/>
-      <c r="I13" s="41" t="n"/>
-      <c r="J13" s="107" t="n"/>
-      <c r="K13" s="108" t="n"/>
-      <c r="M13" s="6" t="n"/>
-      <c r="N13" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="14" s="27" spans="1:14">
-      <c r="A14" s="110" t="n"/>
-      <c r="B14" s="85" t="n"/>
-      <c r="C14" s="86" t="n"/>
-      <c r="D14" s="86" t="n"/>
-      <c r="E14" s="54" t="n"/>
-      <c r="F14" s="38" t="n"/>
-      <c r="G14" s="107" t="n"/>
-      <c r="H14" s="112" t="n"/>
-      <c r="I14" s="41" t="n"/>
-      <c r="J14" s="107" t="n"/>
-      <c r="K14" s="108" t="n"/>
-      <c r="M14" s="6" t="n"/>
-      <c r="N14" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="15" s="27" spans="1:14">
-      <c r="A15" s="110" t="n"/>
-      <c r="B15" s="85" t="n"/>
-      <c r="C15" s="86" t="n"/>
-      <c r="D15" s="86" t="n"/>
-      <c r="E15" s="54" t="n"/>
-      <c r="F15" s="38" t="n"/>
-      <c r="G15" s="107" t="n"/>
-      <c r="H15" s="112" t="n"/>
-      <c r="I15" s="41" t="n"/>
-      <c r="J15" s="107" t="n"/>
-      <c r="K15" s="108" t="n"/>
-      <c r="M15" s="6" t="n"/>
-      <c r="N15" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="16" s="27" spans="1:14">
-      <c r="A16" s="110" t="n"/>
-      <c r="B16" s="85" t="n"/>
-      <c r="C16" s="86" t="n"/>
-      <c r="D16" s="86" t="n"/>
-      <c r="E16" s="58" t="n"/>
-      <c r="F16" s="38" t="n"/>
-      <c r="G16" s="107" t="n"/>
-      <c r="H16" s="112" t="n"/>
-      <c r="I16" s="57" t="n"/>
-      <c r="J16" s="91" t="n"/>
-      <c r="K16" s="108" t="n"/>
-      <c r="M16" s="6" t="n"/>
-      <c r="N16" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="17" s="27" spans="1:14" thickBot="1">
-      <c r="A17" s="111" t="n"/>
-      <c r="B17" s="145" t="n"/>
-      <c r="C17" s="146" t="n"/>
-      <c r="D17" s="146" t="n"/>
-      <c r="E17" s="58" t="n"/>
-      <c r="F17" s="38" t="n"/>
-      <c r="G17" s="142" t="n"/>
-      <c r="H17" s="143" t="n"/>
-      <c r="I17" s="41" t="n"/>
-      <c r="J17" s="107" t="n"/>
-      <c r="K17" s="108" t="n"/>
-      <c r="M17" s="6" t="n"/>
-      <c r="N17" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="18" s="27" spans="1:14">
-      <c r="A18" s="138" t="s">
+      <c r="B13" s="86" t="n"/>
+      <c r="C13" s="87" t="n"/>
+      <c r="D13" s="87" t="n"/>
+      <c r="E13" s="67" t="n"/>
+      <c r="F13" s="44" t="n"/>
+      <c r="G13" s="140" t="n"/>
+      <c r="H13" s="141" t="n"/>
+      <c r="I13" s="47" t="n"/>
+      <c r="J13" s="105" t="n"/>
+      <c r="K13" s="106" t="n"/>
+      <c r="M13" s="9" t="n"/>
+      <c r="N13" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="14" s="31" spans="1:14">
+      <c r="A14" s="108" t="n"/>
+      <c r="B14" s="86" t="n"/>
+      <c r="C14" s="87" t="n"/>
+      <c r="D14" s="87" t="n"/>
+      <c r="E14" s="67" t="n"/>
+      <c r="F14" s="44" t="n"/>
+      <c r="G14" s="105" t="n"/>
+      <c r="H14" s="139" t="n"/>
+      <c r="I14" s="47" t="n"/>
+      <c r="J14" s="105" t="n"/>
+      <c r="K14" s="106" t="n"/>
+      <c r="M14" s="9" t="n"/>
+      <c r="N14" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="15" s="31" spans="1:14">
+      <c r="A15" s="108" t="n"/>
+      <c r="B15" s="86" t="n"/>
+      <c r="C15" s="87" t="n"/>
+      <c r="D15" s="87" t="n"/>
+      <c r="E15" s="67" t="n"/>
+      <c r="F15" s="44" t="n"/>
+      <c r="G15" s="105" t="n"/>
+      <c r="H15" s="139" t="n"/>
+      <c r="I15" s="47" t="n"/>
+      <c r="J15" s="105" t="n"/>
+      <c r="K15" s="106" t="n"/>
+      <c r="M15" s="9" t="n"/>
+      <c r="N15" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="16" s="31" spans="1:14">
+      <c r="A16" s="108" t="n"/>
+      <c r="B16" s="86" t="n"/>
+      <c r="C16" s="87" t="n"/>
+      <c r="D16" s="87" t="n"/>
+      <c r="E16" s="71" t="n"/>
+      <c r="F16" s="44" t="n"/>
+      <c r="G16" s="105" t="n"/>
+      <c r="H16" s="139" t="n"/>
+      <c r="I16" s="70" t="n"/>
+      <c r="J16" s="92" t="n"/>
+      <c r="K16" s="106" t="n"/>
+      <c r="M16" s="9" t="n"/>
+      <c r="N16" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="17" s="31" spans="1:14" thickBot="1">
+      <c r="A17" s="109" t="n"/>
+      <c r="B17" s="144" t="n"/>
+      <c r="C17" s="145" t="n"/>
+      <c r="D17" s="145" t="n"/>
+      <c r="E17" s="71" t="n"/>
+      <c r="F17" s="44" t="n"/>
+      <c r="G17" s="140" t="n"/>
+      <c r="H17" s="141" t="n"/>
+      <c r="I17" s="47" t="n"/>
+      <c r="J17" s="105" t="n"/>
+      <c r="K17" s="106" t="n"/>
+      <c r="M17" s="9" t="n"/>
+      <c r="N17" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="18" s="31" spans="1:14">
+      <c r="A18" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="83" t="n"/>
-      <c r="C18" s="84" t="n"/>
-      <c r="D18" s="84" t="n"/>
-      <c r="E18" s="144" t="n"/>
-      <c r="F18" s="40" t="n"/>
+      <c r="B18" s="84" t="n"/>
+      <c r="C18" s="85" t="n"/>
+      <c r="D18" s="85" t="n"/>
+      <c r="E18" s="143" t="n"/>
+      <c r="F18" s="46" t="n"/>
       <c r="G18" s="148" t="n"/>
       <c r="H18" s="149" t="n"/>
-      <c r="I18" s="43" t="n"/>
+      <c r="I18" s="49" t="n"/>
       <c r="J18" s="148" t="n"/>
       <c r="K18" s="152" t="n"/>
-      <c r="M18" s="6" t="n"/>
-      <c r="N18" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="19" s="27" spans="1:14">
-      <c r="A19" s="138" t="n"/>
-      <c r="B19" s="85" t="n"/>
-      <c r="C19" s="86" t="n"/>
-      <c r="D19" s="86" t="n"/>
-      <c r="E19" s="94" t="n"/>
-      <c r="F19" s="38" t="n"/>
-      <c r="G19" s="142" t="n"/>
-      <c r="H19" s="143" t="n"/>
-      <c r="I19" s="38" t="n"/>
-      <c r="J19" s="142" t="n"/>
+      <c r="M18" s="9" t="n"/>
+      <c r="N18" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="19" s="31" spans="1:14">
+      <c r="A19" s="135" t="n"/>
+      <c r="B19" s="86" t="n"/>
+      <c r="C19" s="87" t="n"/>
+      <c r="D19" s="87" t="n"/>
+      <c r="E19" s="146" t="n"/>
+      <c r="F19" s="44" t="n"/>
+      <c r="G19" s="140" t="n"/>
+      <c r="H19" s="141" t="n"/>
+      <c r="I19" s="44" t="n"/>
+      <c r="J19" s="140" t="n"/>
       <c r="K19" s="153" t="n"/>
-      <c r="M19" s="6" t="n"/>
-      <c r="N19" s="7" t="n"/>
-    </row>
-    <row customFormat="1" r="20" s="27" spans="1:14">
-      <c r="A20" s="138" t="n"/>
-      <c r="B20" s="85" t="n"/>
-      <c r="C20" s="86" t="n"/>
-      <c r="D20" s="86" t="n"/>
-      <c r="E20" s="94" t="n"/>
-      <c r="F20" s="38" t="n"/>
-      <c r="G20" s="142" t="n"/>
-      <c r="H20" s="143" t="n"/>
-      <c r="I20" s="38" t="n"/>
-      <c r="J20" s="142" t="n"/>
+      <c r="M19" s="9" t="n"/>
+      <c r="N19" s="10" t="n"/>
+    </row>
+    <row customFormat="1" r="20" s="31" spans="1:14">
+      <c r="A20" s="135" t="n"/>
+      <c r="B20" s="86" t="n"/>
+      <c r="C20" s="87" t="n"/>
+      <c r="D20" s="87" t="n"/>
+      <c r="E20" s="146" t="n"/>
+      <c r="F20" s="44" t="n"/>
+      <c r="G20" s="140" t="n"/>
+      <c r="H20" s="141" t="n"/>
+      <c r="I20" s="44" t="n"/>
+      <c r="J20" s="140" t="n"/>
       <c r="K20" s="153" t="n"/>
-      <c r="M20" s="6" t="n"/>
-      <c r="N20" s="7" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="21" s="27" spans="1:14" thickBot="1">
-      <c r="A21" s="139" t="n"/>
-      <c r="B21" s="81" t="n"/>
-      <c r="C21" s="82" t="n"/>
-      <c r="D21" s="82" t="n"/>
+      <c r="M20" s="9" t="n"/>
+      <c r="N20" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="21" s="31" spans="1:14" thickBot="1">
+      <c r="A21" s="136" t="n"/>
+      <c r="B21" s="82" t="n"/>
+      <c r="C21" s="83" t="n"/>
+      <c r="D21" s="83" t="n"/>
       <c r="E21" s="147" t="n"/>
-      <c r="F21" s="39" t="n"/>
+      <c r="F21" s="45" t="n"/>
       <c r="G21" s="150" t="n"/>
       <c r="H21" s="151" t="n"/>
-      <c r="I21" s="39" t="n"/>
+      <c r="I21" s="45" t="n"/>
       <c r="J21" s="150" t="n"/>
       <c r="K21" s="154" t="n"/>
-      <c r="M21" s="25" t="n"/>
-      <c r="N21" s="26" t="n"/>
-    </row>
-    <row customFormat="1" r="22" s="27" spans="1:14">
-      <c r="A22" s="140" t="s">
+      <c r="M21" s="29" t="n"/>
+      <c r="N21" s="30" t="n"/>
+    </row>
+    <row customFormat="1" r="22" s="31" spans="1:14">
+      <c r="A22" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="84" t="n"/>
-      <c r="D22" s="114" t="n"/>
-      <c r="E22" s="54" t="s">
+      <c r="C22" s="85" t="n"/>
+      <c r="D22" s="111" t="n"/>
+      <c r="E22" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="35" t="n"/>
-      <c r="G22" s="92" t="n"/>
-      <c r="H22" s="144" t="n"/>
-      <c r="I22" s="35" t="n"/>
-      <c r="J22" s="92" t="n"/>
-      <c r="K22" s="93" t="n"/>
-      <c r="M22" s="28" t="n"/>
-      <c r="N22" s="28" t="n"/>
-    </row>
-    <row customFormat="1" r="23" s="27" spans="1:14">
-      <c r="A23" s="140" t="n"/>
-      <c r="B23" s="85" t="s">
+      <c r="F22" s="41" t="n"/>
+      <c r="G22" s="142" t="n"/>
+      <c r="H22" s="143" t="n"/>
+      <c r="I22" s="41" t="n"/>
+      <c r="J22" s="142" t="n"/>
+      <c r="K22" s="155" t="n"/>
+      <c r="M22" s="32" t="n"/>
+      <c r="N22" s="32" t="n"/>
+    </row>
+    <row customFormat="1" r="23" s="31" spans="1:14">
+      <c r="A23" s="137" t="n"/>
+      <c r="B23" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="86" t="n"/>
-      <c r="D23" s="86" t="n"/>
-      <c r="E23" s="54" t="s">
+      <c r="C23" s="87" t="n"/>
+      <c r="D23" s="87" t="n"/>
+      <c r="E23" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="36" t="n"/>
-      <c r="G23" s="87" t="n"/>
-      <c r="H23" s="94" t="n"/>
-      <c r="I23" s="36" t="n"/>
-      <c r="J23" s="87" t="n"/>
-      <c r="K23" s="88" t="n"/>
-      <c r="M23" s="28" t="n"/>
-      <c r="N23" s="28" t="n"/>
-    </row>
-    <row customFormat="1" r="24" s="27" spans="1:14">
-      <c r="A24" s="140" t="n"/>
-      <c r="B24" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="86" t="n"/>
-      <c r="D24" s="48" t="n"/>
-      <c r="E24" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="32" t="n"/>
-      <c r="G24" s="87" t="n"/>
-      <c r="H24" s="94" t="n"/>
-      <c r="I24" s="32" t="n"/>
-      <c r="J24" s="87" t="n"/>
-      <c r="K24" s="88" t="n"/>
-      <c r="M24" s="28" t="n"/>
-      <c r="N24" s="28" t="n"/>
-    </row>
-    <row customFormat="1" r="25" s="27" spans="1:14">
-      <c r="A25" s="140" t="n"/>
-      <c r="B25" s="91" t="n"/>
-      <c r="C25" s="86" t="n"/>
-      <c r="D25" s="49" t="n"/>
-      <c r="E25" s="56" t="n"/>
-      <c r="F25" s="32" t="n"/>
-      <c r="G25" s="87" t="n"/>
-      <c r="H25" s="94" t="n"/>
-      <c r="I25" s="32" t="n"/>
-      <c r="J25" s="87" t="n"/>
-      <c r="K25" s="88" t="n"/>
-      <c r="M25" s="28" t="n"/>
-      <c r="N25" s="28" t="n"/>
-    </row>
-    <row customFormat="1" r="26" s="27" spans="1:14">
-      <c r="A26" s="140" t="n"/>
-      <c r="B26" s="91" t="n"/>
-      <c r="C26" s="86" t="n"/>
-      <c r="D26" s="49" t="n"/>
-      <c r="E26" s="56" t="n"/>
-      <c r="F26" s="32" t="n"/>
-      <c r="G26" s="87" t="n"/>
-      <c r="H26" s="94" t="n"/>
-      <c r="I26" s="32" t="n"/>
-      <c r="J26" s="87" t="n"/>
-      <c r="K26" s="88" t="n"/>
-      <c r="M26" s="28" t="n"/>
-      <c r="N26" s="28" t="n"/>
-    </row>
-    <row customFormat="1" r="27" s="27" spans="1:14">
-      <c r="A27" s="140" t="n"/>
-      <c r="B27" s="91" t="n"/>
-      <c r="C27" s="86" t="n"/>
-      <c r="D27" s="49" t="n"/>
-      <c r="E27" s="56" t="n"/>
-      <c r="F27" s="32" t="n"/>
-      <c r="G27" s="87" t="n"/>
-      <c r="H27" s="94" t="n"/>
-      <c r="I27" s="32" t="n"/>
-      <c r="J27" s="87" t="n"/>
-      <c r="K27" s="88" t="n"/>
-      <c r="M27" s="28" t="n"/>
-      <c r="N27" s="28" t="n"/>
-    </row>
-    <row customFormat="1" r="28" s="27" spans="1:14">
-      <c r="A28" s="140" t="n"/>
-      <c r="B28" s="85" t="n"/>
-      <c r="C28" s="86" t="n"/>
-      <c r="D28" s="49" t="n"/>
-      <c r="E28" s="46" t="n"/>
-      <c r="F28" s="32" t="n"/>
-      <c r="G28" s="87" t="n"/>
-      <c r="H28" s="94" t="n"/>
-      <c r="I28" s="32" t="n"/>
-      <c r="J28" s="87" t="n"/>
-      <c r="K28" s="88" t="n"/>
-      <c r="M28" s="28" t="n"/>
-      <c r="N28" s="28" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="29" s="27" spans="1:14" thickBot="1">
-      <c r="A29" s="141" t="n"/>
-      <c r="B29" s="81" t="n"/>
-      <c r="C29" s="82" t="n"/>
-      <c r="D29" s="82" t="n"/>
+      <c r="F23" s="42" t="n"/>
+      <c r="G23" s="88" t="n"/>
+      <c r="H23" s="146" t="n"/>
+      <c r="I23" s="42" t="n"/>
+      <c r="J23" s="88" t="n"/>
+      <c r="K23" s="89" t="n"/>
+      <c r="M23" s="32" t="n"/>
+      <c r="N23" s="32" t="n"/>
+    </row>
+    <row customFormat="1" r="24" s="31" spans="1:14">
+      <c r="A24" s="137" t="n"/>
+      <c r="B24" s="86" t="n"/>
+      <c r="C24" s="87" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="68" t="n"/>
+      <c r="F24" s="38" t="n"/>
+      <c r="G24" s="88" t="n"/>
+      <c r="H24" s="146" t="n"/>
+      <c r="I24" s="38" t="n"/>
+      <c r="J24" s="88" t="n"/>
+      <c r="K24" s="89" t="n"/>
+      <c r="M24" s="32" t="n"/>
+      <c r="N24" s="32" t="n"/>
+    </row>
+    <row customFormat="1" r="25" s="31" spans="1:14">
+      <c r="A25" s="137" t="n"/>
+      <c r="B25" s="92" t="n"/>
+      <c r="C25" s="87" t="n"/>
+      <c r="D25" s="62" t="n"/>
+      <c r="E25" s="69" t="n"/>
+      <c r="F25" s="38" t="n"/>
+      <c r="G25" s="88" t="n"/>
+      <c r="H25" s="146" t="n"/>
+      <c r="I25" s="38" t="n"/>
+      <c r="J25" s="88" t="n"/>
+      <c r="K25" s="89" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+    </row>
+    <row customFormat="1" r="26" s="31" spans="1:14">
+      <c r="A26" s="137" t="n"/>
+      <c r="B26" s="92" t="n"/>
+      <c r="C26" s="87" t="n"/>
+      <c r="D26" s="62" t="n"/>
+      <c r="E26" s="69" t="n"/>
+      <c r="F26" s="38" t="n"/>
+      <c r="G26" s="88" t="n"/>
+      <c r="H26" s="146" t="n"/>
+      <c r="I26" s="38" t="n"/>
+      <c r="J26" s="88" t="n"/>
+      <c r="K26" s="89" t="n"/>
+      <c r="M26" s="32" t="n"/>
+      <c r="N26" s="32" t="n"/>
+    </row>
+    <row customFormat="1" r="27" s="31" spans="1:14">
+      <c r="A27" s="137" t="n"/>
+      <c r="B27" s="92" t="n"/>
+      <c r="C27" s="87" t="n"/>
+      <c r="D27" s="62" t="n"/>
+      <c r="E27" s="69" t="n"/>
+      <c r="F27" s="38" t="n"/>
+      <c r="G27" s="88" t="n"/>
+      <c r="H27" s="146" t="n"/>
+      <c r="I27" s="38" t="n"/>
+      <c r="J27" s="88" t="n"/>
+      <c r="K27" s="89" t="n"/>
+      <c r="M27" s="32" t="n"/>
+      <c r="N27" s="32" t="n"/>
+    </row>
+    <row customFormat="1" r="28" s="31" spans="1:14">
+      <c r="A28" s="137" t="n"/>
+      <c r="B28" s="86" t="n"/>
+      <c r="C28" s="87" t="n"/>
+      <c r="D28" s="62" t="n"/>
+      <c r="E28" s="57" t="n"/>
+      <c r="F28" s="38" t="n"/>
+      <c r="G28" s="88" t="n"/>
+      <c r="H28" s="146" t="n"/>
+      <c r="I28" s="38" t="n"/>
+      <c r="J28" s="88" t="n"/>
+      <c r="K28" s="89" t="n"/>
+      <c r="M28" s="32" t="n"/>
+      <c r="N28" s="32" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="29" s="31" spans="1:14" thickBot="1">
+      <c r="A29" s="138" t="n"/>
+      <c r="B29" s="82" t="n"/>
+      <c r="C29" s="83" t="n"/>
+      <c r="D29" s="83" t="n"/>
       <c r="E29" s="147" t="n"/>
-      <c r="F29" s="37" t="n"/>
-      <c r="G29" s="89" t="n"/>
+      <c r="F29" s="43" t="n"/>
+      <c r="G29" s="90" t="n"/>
       <c r="H29" s="147" t="n"/>
-      <c r="I29" s="37" t="n"/>
-      <c r="J29" s="89" t="n"/>
-      <c r="K29" s="90" t="n"/>
-      <c r="M29" s="28" t="n"/>
-      <c r="N29" s="28" t="n"/>
+      <c r="I29" s="43" t="n"/>
+      <c r="J29" s="90" t="n"/>
+      <c r="K29" s="91" t="n"/>
+      <c r="M29" s="32" t="n"/>
+      <c r="N29" s="32" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="30" spans="1:14" thickBot="1">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="127" t="n"/>
-      <c r="C30" s="127" t="n"/>
-      <c r="D30" s="127" t="n"/>
-      <c r="E30" s="128" t="n"/>
-      <c r="F30" s="128" t="n"/>
-      <c r="G30" s="128" t="n"/>
-      <c r="H30" s="128" t="n"/>
-      <c r="I30" s="128" t="n"/>
-      <c r="J30" s="129" t="n"/>
-      <c r="K30" s="130" t="n"/>
+      <c r="B30" s="124" t="n"/>
+      <c r="C30" s="124" t="n"/>
+      <c r="D30" s="124" t="n"/>
+      <c r="E30" s="125" t="n"/>
+      <c r="F30" s="125" t="n"/>
+      <c r="G30" s="125" t="n"/>
+      <c r="H30" s="125" t="n"/>
+      <c r="I30" s="125" t="n"/>
+      <c r="J30" s="126" t="n"/>
+      <c r="K30" s="127" t="n"/>
     </row>
     <row customHeight="1" ht="83.25" r="31" spans="1:14" thickBot="1">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="135" t="n"/>
-      <c r="C31" s="135" t="n"/>
-      <c r="D31" s="135" t="n"/>
-      <c r="E31" s="135" t="n"/>
-      <c r="F31" s="135" t="n"/>
-      <c r="G31" s="135" t="n"/>
-      <c r="H31" s="135" t="n"/>
-      <c r="I31" s="135" t="n"/>
-      <c r="J31" s="135" t="n"/>
-      <c r="K31" s="136" t="n"/>
+      <c r="B31" s="132" t="n"/>
+      <c r="C31" s="132" t="n"/>
+      <c r="D31" s="132" t="n"/>
+      <c r="E31" s="132" t="n"/>
+      <c r="F31" s="132" t="n"/>
+      <c r="G31" s="132" t="n"/>
+      <c r="H31" s="132" t="n"/>
+      <c r="I31" s="132" t="n"/>
+      <c r="J31" s="132" t="n"/>
+      <c r="K31" s="133" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="32" spans="1:14" thickBot="1">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="127" t="n"/>
-      <c r="C32" s="127" t="n"/>
-      <c r="D32" s="127" t="n"/>
-      <c r="E32" s="128" t="n"/>
-      <c r="F32" s="128" t="n"/>
-      <c r="G32" s="128" t="n"/>
-      <c r="H32" s="128" t="n"/>
-      <c r="I32" s="128" t="n"/>
-      <c r="J32" s="129" t="n"/>
-      <c r="K32" s="130" t="n"/>
+      <c r="B32" s="124" t="n"/>
+      <c r="C32" s="124" t="n"/>
+      <c r="D32" s="124" t="n"/>
+      <c r="E32" s="125" t="n"/>
+      <c r="F32" s="125" t="n"/>
+      <c r="G32" s="125" t="n"/>
+      <c r="H32" s="125" t="n"/>
+      <c r="I32" s="125" t="n"/>
+      <c r="J32" s="126" t="n"/>
+      <c r="K32" s="127" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="33" spans="1:14">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="158" t="n"/>
-      <c r="C33" s="158" t="n"/>
-      <c r="D33" s="158" t="n"/>
-      <c r="E33" s="84" t="n"/>
-      <c r="F33" s="84" t="s">
+      <c r="B33" s="162" t="n"/>
+      <c r="C33" s="162" t="n"/>
+      <c r="D33" s="162" t="n"/>
+      <c r="E33" s="85" t="n"/>
+      <c r="F33" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="113" t="s">
+      <c r="G33" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="114" t="n"/>
-      <c r="I33" s="113" t="s">
+      <c r="H33" s="111" t="n"/>
+      <c r="I33" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="114" t="n"/>
-      <c r="K33" s="44" t="s">
+      <c r="J33" s="111" t="n"/>
+      <c r="K33" s="50" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="159" t="n"/>
-      <c r="B34" s="160" t="n"/>
-      <c r="C34" s="160" t="n"/>
-      <c r="D34" s="160" t="n"/>
-      <c r="E34" s="86" t="n"/>
-      <c r="F34" s="86" t="n"/>
-      <c r="G34" s="85" t="n"/>
-      <c r="H34" s="86" t="n"/>
-      <c r="I34" s="85" t="n"/>
-      <c r="J34" s="86" t="n"/>
-      <c r="K34" s="8" t="n"/>
+      <c r="A34" s="163" t="n"/>
+      <c r="B34" s="164" t="n"/>
+      <c r="C34" s="164" t="n"/>
+      <c r="D34" s="164" t="n"/>
+      <c r="E34" s="87" t="n"/>
+      <c r="F34" s="87" t="n"/>
+      <c r="G34" s="86" t="n"/>
+      <c r="H34" s="87" t="n"/>
+      <c r="I34" s="86" t="n"/>
+      <c r="J34" s="87" t="n"/>
+      <c r="K34" s="11" t="n"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="159" t="n"/>
-      <c r="B35" s="160" t="n"/>
-      <c r="C35" s="160" t="n"/>
-      <c r="D35" s="160" t="n"/>
-      <c r="E35" s="86" t="n"/>
-      <c r="F35" s="86" t="n"/>
-      <c r="G35" s="85" t="n"/>
-      <c r="H35" s="86" t="n"/>
-      <c r="I35" s="85" t="n"/>
-      <c r="J35" s="86" t="n"/>
-      <c r="K35" s="8" t="n"/>
+      <c r="A35" s="163" t="n"/>
+      <c r="B35" s="164" t="n"/>
+      <c r="C35" s="164" t="n"/>
+      <c r="D35" s="164" t="n"/>
+      <c r="E35" s="87" t="n"/>
+      <c r="F35" s="87" t="n"/>
+      <c r="G35" s="86" t="n"/>
+      <c r="H35" s="87" t="n"/>
+      <c r="I35" s="86" t="n"/>
+      <c r="J35" s="87" t="n"/>
+      <c r="K35" s="11" t="n"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="159" t="n"/>
-      <c r="B36" s="160" t="n"/>
-      <c r="C36" s="160" t="n"/>
-      <c r="D36" s="160" t="n"/>
-      <c r="E36" s="86" t="n"/>
-      <c r="F36" s="86" t="n"/>
-      <c r="G36" s="85" t="n"/>
-      <c r="H36" s="86" t="n"/>
-      <c r="I36" s="85" t="n"/>
-      <c r="J36" s="86" t="n"/>
-      <c r="K36" s="8" t="n"/>
+      <c r="A36" s="163" t="n"/>
+      <c r="B36" s="164" t="n"/>
+      <c r="C36" s="164" t="n"/>
+      <c r="D36" s="164" t="n"/>
+      <c r="E36" s="87" t="n"/>
+      <c r="F36" s="87" t="n"/>
+      <c r="G36" s="86" t="n"/>
+      <c r="H36" s="87" t="n"/>
+      <c r="I36" s="86" t="n"/>
+      <c r="J36" s="87" t="n"/>
+      <c r="K36" s="11" t="n"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="161" t="n"/>
-      <c r="B37" s="162" t="n"/>
-      <c r="C37" s="162" t="n"/>
-      <c r="D37" s="162" t="n"/>
-      <c r="E37" s="163" t="n"/>
-      <c r="F37" s="163" t="n"/>
-      <c r="G37" s="85" t="n"/>
-      <c r="H37" s="86" t="n"/>
-      <c r="I37" s="85" t="n"/>
-      <c r="J37" s="86" t="n"/>
-      <c r="K37" s="8" t="n"/>
+      <c r="A37" s="156" t="n"/>
+      <c r="B37" s="157" t="n"/>
+      <c r="C37" s="157" t="n"/>
+      <c r="D37" s="157" t="n"/>
+      <c r="E37" s="158" t="n"/>
+      <c r="F37" s="158" t="n"/>
+      <c r="G37" s="86" t="n"/>
+      <c r="H37" s="87" t="n"/>
+      <c r="I37" s="86" t="n"/>
+      <c r="J37" s="87" t="n"/>
+      <c r="K37" s="11" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="38" spans="1:14" thickBot="1">
-      <c r="A38" s="155" t="n"/>
-      <c r="B38" s="156" t="n"/>
-      <c r="C38" s="156" t="n"/>
-      <c r="D38" s="156" t="n"/>
-      <c r="E38" s="82" t="n"/>
-      <c r="F38" s="82" t="n"/>
-      <c r="G38" s="81" t="n"/>
-      <c r="H38" s="82" t="n"/>
-      <c r="I38" s="81" t="n"/>
-      <c r="J38" s="82" t="n"/>
-      <c r="K38" s="45" t="n"/>
+      <c r="A38" s="159" t="n"/>
+      <c r="B38" s="160" t="n"/>
+      <c r="C38" s="160" t="n"/>
+      <c r="D38" s="160" t="n"/>
+      <c r="E38" s="83" t="n"/>
+      <c r="F38" s="83" t="n"/>
+      <c r="G38" s="82" t="n"/>
+      <c r="H38" s="83" t="n"/>
+      <c r="I38" s="82" t="n"/>
+      <c r="J38" s="83" t="n"/>
+      <c r="K38" s="56" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="99">
@@ -3237,20 +3548,20 @@
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>

--- a/mysite/zhoubao.xlsx
+++ b/mysite/zhoubao.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>1.1      Cloud策略</t>
   </si>
@@ -290,7 +290,7 @@
     <t>本周时段</t>
   </si>
   <si>
-    <t>2017年9月11日     －－      9月15日</t>
+    <t>2017-10-31 ---- 2017-11-05</t>
   </si>
   <si>
     <t>本周进度计划完成情况</t>
@@ -317,19 +317,31 @@
     <t>A1项目计划</t>
   </si>
   <si>
+    <t>已延期</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>A2项目计划</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>B项目计划</t>
   </si>
   <si>
     <t>其它任务计划</t>
   </si>
   <si>
-    <t>云平台三季度 BUG 修复</t>
-  </si>
-  <si>
-    <t>进行中31%</t>
+    <t>云平台零散任务（2017三季度）</t>
+  </si>
+  <si>
+    <t>已暂停租户门户云主机的【删除】操作</t>
   </si>
   <si>
     <t>云平台三季度BUG修复</t>
@@ -3093,10 +3105,16 @@
       <c r="A10" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="86" t="n"/>
+      <c r="B10" s="86" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="87" t="n"/>
-      <c r="D10" s="87" t="n"/>
-      <c r="E10" s="67" t="n"/>
+      <c r="D10" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>99</v>
+      </c>
       <c r="F10" s="44" t="n"/>
       <c r="G10" s="105" t="n"/>
       <c r="H10" s="139" t="n"/>
@@ -3110,7 +3128,9 @@
       <c r="A11" s="107" t="n"/>
       <c r="B11" s="86" t="n"/>
       <c r="C11" s="87" t="n"/>
-      <c r="D11" s="87" t="n"/>
+      <c r="D11" s="87" t="s">
+        <v>100</v>
+      </c>
       <c r="E11" s="67" t="n"/>
       <c r="F11" s="44" t="n"/>
       <c r="G11" s="105" t="n"/>
@@ -3125,7 +3145,9 @@
       <c r="A12" s="107" t="n"/>
       <c r="B12" s="86" t="n"/>
       <c r="C12" s="87" t="n"/>
-      <c r="D12" s="87" t="n"/>
+      <c r="D12" s="87" t="s">
+        <v>101</v>
+      </c>
       <c r="E12" s="141" t="n"/>
       <c r="F12" s="44" t="n"/>
       <c r="G12" s="140" t="n"/>
@@ -3138,11 +3160,13 @@
     </row>
     <row customFormat="1" r="13" s="31" spans="1:14">
       <c r="A13" s="107" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" s="86" t="n"/>
       <c r="C13" s="87" t="n"/>
-      <c r="D13" s="87" t="n"/>
+      <c r="D13" s="87" t="s">
+        <v>100</v>
+      </c>
       <c r="E13" s="67" t="n"/>
       <c r="F13" s="44" t="n"/>
       <c r="G13" s="140" t="n"/>
@@ -3157,7 +3181,9 @@
       <c r="A14" s="108" t="n"/>
       <c r="B14" s="86" t="n"/>
       <c r="C14" s="87" t="n"/>
-      <c r="D14" s="87" t="n"/>
+      <c r="D14" s="87" t="s">
+        <v>103</v>
+      </c>
       <c r="E14" s="67" t="n"/>
       <c r="F14" s="44" t="n"/>
       <c r="G14" s="105" t="n"/>
@@ -3215,7 +3241,7 @@
     </row>
     <row customFormat="1" r="18" s="31" spans="1:14">
       <c r="A18" s="135" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B18" s="84" t="n"/>
       <c r="C18" s="85" t="n"/>
@@ -3277,15 +3303,15 @@
     </row>
     <row customFormat="1" r="22" s="31" spans="1:14">
       <c r="A22" s="137" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C22" s="85" t="n"/>
       <c r="D22" s="111" t="n"/>
       <c r="E22" s="67" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F22" s="41" t="n"/>
       <c r="G22" s="142" t="n"/>
@@ -3299,12 +3325,12 @@
     <row customFormat="1" r="23" s="31" spans="1:14">
       <c r="A23" s="137" t="n"/>
       <c r="B23" s="86" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C23" s="87" t="n"/>
       <c r="D23" s="87" t="n"/>
       <c r="E23" s="67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F23" s="42" t="n"/>
       <c r="G23" s="88" t="n"/>
@@ -3407,7 +3433,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="30" spans="1:14" thickBot="1">
       <c r="A30" s="123" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B30" s="124" t="n"/>
       <c r="C30" s="124" t="n"/>
@@ -3422,7 +3448,7 @@
     </row>
     <row customHeight="1" ht="83.25" r="31" spans="1:14" thickBot="1">
       <c r="A31" s="131" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B31" s="132" t="n"/>
       <c r="C31" s="132" t="n"/>
@@ -3437,7 +3463,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="32" spans="1:14" thickBot="1">
       <c r="A32" s="134" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B32" s="124" t="n"/>
       <c r="C32" s="124" t="n"/>
@@ -3459,18 +3485,18 @@
       <c r="D33" s="162" t="n"/>
       <c r="E33" s="85" t="n"/>
       <c r="F33" s="85" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G33" s="110" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H33" s="111" t="n"/>
       <c r="I33" s="110" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J33" s="111" t="n"/>
       <c r="K33" s="50" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:14">
